--- a/files/개발사업 산출물 템플릿/설계/(B001)메뉴구조도(SIMM)_V1.0.xlsx
+++ b/files/개발사업 산출물 템플릿/설계/(B001)메뉴구조도(SIMM)_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A1\04.기술사업\2020\004.중소기업기술정보진흥원(TIPA-SMTECH)\구매조건부_국내수요처(스마트항만)\2.1프로젝트관리\3.개발사업 산출물 템플릿\20. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB90133-E6C6-4915-9C28-2A685E994585}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA24AA68-AC73-4BB6-BC95-2C61CC672771}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="13" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>비고</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -314,14 +314,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>anchorStatus.jsp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>boatStatus.jsp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>boatEntryList.jsp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -423,6 +415,26 @@
   </si>
   <si>
     <t>deviceAnchorAssign.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchorStatusByAnchor.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchorStatusBySector.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간별 회원 사용 현황</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userStatusReport.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -18919,7 +18931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -19016,6 +19028,12 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -19040,55 +19058,55 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="71" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="71" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25331,86 +25349,86 @@
   <sheetData>
     <row r="2" spans="1:7" ht="32.25" customHeight="1"/>
     <row r="3" spans="1:7">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" ht="40.35" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="35.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="25.5">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="20" spans="1:7">
       <c r="C20" s="2"/>
@@ -25420,22 +25438,22 @@
       <c r="D24" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -25482,24 +25500,24 @@
   <sheetData>
     <row r="2" spans="2:8" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:8" ht="12" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="2"/>
@@ -25771,11 +25789,11 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -25788,53 +25806,56 @@
     <col min="6" max="6" width="5.77734375" style="19" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" style="17" customWidth="1"/>
     <col min="8" max="8" width="26" style="17" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="19" customWidth="1"/>
-    <col min="10" max="11" width="6.21875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="16"/>
+    <col min="9" max="9" width="3.33203125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="19" customWidth="1"/>
+    <col min="11" max="12" width="6.21875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="16" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:13" s="15" customFormat="1">
+      <c r="B1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="27"/>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="55"/>
+      <c r="M1" s="47"/>
     </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="52" t="s">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28"/>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="56"/>
+      <c r="M2" s="49"/>
     </row>
-    <row r="3" spans="1:12" s="15" customFormat="1">
+    <row r="3" spans="1:13" s="15" customFormat="1">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
@@ -25842,12 +25863,13 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="B4" s="44" t="s">
         <v>1</v>
       </c>
@@ -25860,38 +25882,42 @@
         <v>3</v>
       </c>
       <c r="G4" s="44"/>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="44"/>
       <c r="K4" s="44"/>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="44"/>
+      <c r="M4" s="44" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="20" t="s">
+    <row r="5" spans="1:13">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="K5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="L5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="42"/>
+      <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:12" s="17" customFormat="1">
+    <row r="6" spans="1:13" s="17" customFormat="1">
       <c r="A6" s="17">
         <v>2</v>
       </c>
@@ -25916,12 +25942,15 @@
       <c r="H6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="18">
+        <v>33</v>
+      </c>
+      <c r="J6" s="29"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="18"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:12" s="17" customFormat="1">
+    <row r="7" spans="1:13" s="17" customFormat="1">
       <c r="A7" s="17">
         <v>3</v>
       </c>
@@ -25930,7 +25959,7 @@
       <c r="D7" s="26"/>
       <c r="E7" s="18"/>
       <c r="F7" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>67</v>
@@ -25938,14 +25967,17 @@
       <c r="H7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="22"/>
+      <c r="I7" s="18">
+        <v>34</v>
+      </c>
+      <c r="J7" s="29"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="23" t="s">
-        <v>91</v>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1">
+    <row r="8" spans="1:13" s="17" customFormat="1">
       <c r="A8" s="17">
         <v>4</v>
       </c>
@@ -25966,14 +25998,17 @@
       <c r="H8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="18">
+        <v>35</v>
+      </c>
+      <c r="J8" s="29"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="23" t="s">
-        <v>90</v>
+      <c r="L8" s="24"/>
+      <c r="M8" s="23" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="17" customFormat="1">
+    <row r="9" spans="1:13" s="17" customFormat="1">
       <c r="A9" s="17">
         <v>5</v>
       </c>
@@ -25989,17 +26024,20 @@
         <v>50</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>100</v>
+      <c r="I9" s="18">
+        <v>36</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="1:12" s="17" customFormat="1">
+    <row r="10" spans="1:13" s="17" customFormat="1">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -26008,20 +26046,23 @@
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>101</v>
+      <c r="I10" s="18">
+        <v>37</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:12" s="17" customFormat="1">
+    <row r="11" spans="1:13" s="17" customFormat="1">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -26046,12 +26087,15 @@
       <c r="H11" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="I11" s="18">
+        <v>38</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:12" s="17" customFormat="1">
+    <row r="12" spans="1:13" s="17" customFormat="1">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -26063,19 +26107,22 @@
         <v>53</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="18">
+        <v>39</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="23" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="13" spans="1:12" s="17" customFormat="1">
+    <row r="13" spans="1:13" s="17" customFormat="1">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -26094,14 +26141,17 @@
         <v>55</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="I13" s="18">
+        <v>41</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
     </row>
-    <row r="14" spans="1:12" s="17" customFormat="1">
+    <row r="14" spans="1:13" s="17" customFormat="1">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -26113,17 +26163,20 @@
         <v>56</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+      <c r="I14" s="18">
+        <v>40</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:12" s="17" customFormat="1">
+    <row r="15" spans="1:13" s="17" customFormat="1">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -26142,14 +26195,17 @@
       <c r="F15" s="24"/>
       <c r="G15" s="23"/>
       <c r="H15" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="18">
+        <v>42</v>
+      </c>
+      <c r="J15" s="29"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:12" s="17" customFormat="1">
+    <row r="16" spans="1:13" s="17" customFormat="1">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -26164,14 +26220,17 @@
       <c r="F16" s="24"/>
       <c r="G16" s="23"/>
       <c r="H16" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="I16" s="18">
+        <v>43</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:12" s="17" customFormat="1">
+    <row r="17" spans="1:13" s="17" customFormat="1">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -26186,14 +26245,17 @@
       <c r="F17" s="24"/>
       <c r="G17" s="23"/>
       <c r="H17" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="I17" s="18">
+        <v>44</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="1:12" s="17" customFormat="1">
+    <row r="18" spans="1:13" s="17" customFormat="1">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -26208,14 +26270,17 @@
       <c r="F18" s="24"/>
       <c r="G18" s="23"/>
       <c r="H18" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="I18" s="18">
+        <v>45</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:12" s="17" customFormat="1">
+    <row r="19" spans="1:13" s="17" customFormat="1">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -26234,14 +26299,17 @@
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
+      <c r="I19" s="18">
+        <v>46</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
     </row>
-    <row r="20" spans="1:12" s="17" customFormat="1">
+    <row r="20" spans="1:13" s="17" customFormat="1">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -26260,14 +26328,17 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
       <c r="H20" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="24"/>
+      <c r="I20" s="18">
+        <v>47</v>
+      </c>
+      <c r="J20" s="29"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="1:12" s="17" customFormat="1">
+    <row r="21" spans="1:13" s="17" customFormat="1">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -26282,115 +26353,142 @@
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="18">
+        <v>48</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
     </row>
-    <row r="22" spans="1:12" s="17" customFormat="1">
+    <row r="22" spans="1:13" s="17" customFormat="1">
       <c r="A22" s="17">
+        <v>16</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="18">
+        <v>49</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="1:13" s="17" customFormat="1">
+      <c r="A23" s="17">
         <v>17</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B23" s="32">
         <v>6</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>87</v>
+      <c r="C23" s="31" t="s">
+        <v>85</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D23" s="32">
         <v>6.1</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="1:12" s="17" customFormat="1">
-      <c r="A23" s="17">
-        <v>18</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32">
-        <v>6.2</v>
-      </c>
       <c r="E23" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="22"/>
+      <c r="I23" s="18">
+        <v>30</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="17" customFormat="1">
+    <row r="24" spans="1:13" s="17" customFormat="1">
       <c r="A24" s="17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="31"/>
       <c r="D24" s="32">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="22"/>
+      <c r="I24" s="18">
+        <v>29</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" s="17" customFormat="1">
+    <row r="25" spans="1:13" s="17" customFormat="1">
       <c r="A25" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="31"/>
       <c r="D25" s="32">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="18">
+        <v>32</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" s="17" customFormat="1">
-      <c r="A26" s="31"/>
+    <row r="26" spans="1:13" s="17" customFormat="1">
+      <c r="A26" s="17">
+        <v>20</v>
+      </c>
       <c r="B26" s="32"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="31"/>
+      <c r="D26" s="32">
+        <v>6.4</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="F26" s="32"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="19"/>
+      <c r="H26" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="18">
+        <v>31</v>
+      </c>
+      <c r="J26" s="29"/>
       <c r="K26" s="19"/>
+      <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="17" customFormat="1">
+    <row r="27" spans="1:13" s="17" customFormat="1">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="31"/>
@@ -26399,11 +26497,12 @@
       <c r="F27" s="32"/>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="19"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:12" s="17" customFormat="1">
+    <row r="28" spans="1:13" s="17" customFormat="1">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="31"/>
@@ -26412,29 +26511,40 @@
       <c r="F28" s="32"/>
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="19"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:13" s="17" customFormat="1">
+      <c r="A29" s="31"/>
       <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="32"/>
       <c r="E29" s="31"/>
       <c r="F29" s="32"/>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="33"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
+  <mergeCells count="15">
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="B4:C5"/>
@@ -26443,6 +26553,12 @@
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="F4:G5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
